--- a/CO - Splunk Basic.xlsx
+++ b/CO - Splunk Basic.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E632FF-D42A-46E3-95B7-DE07DEDFD063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_03_09_2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CD04B-D903-4209-B821-50643C5B5D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,19 +975,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="48" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -992,7 +999,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1">
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1009,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1014,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" customHeight="1">
+    <row r="4" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
@@ -1040,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="16" t="s">
         <v>14</v>
@@ -1052,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
@@ -1064,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="s">
         <v>20</v>
@@ -1076,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="16" t="s">
         <v>21</v>
@@ -1088,7 +1095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25">
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
@@ -1100,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
+    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="16" t="s">
         <v>27</v>
@@ -1112,7 +1119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="16" t="s">
         <v>30</v>
@@ -1124,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="16" t="s">
         <v>32</v>
@@ -1136,7 +1143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="16" t="s">
         <v>34</v>
@@ -1148,7 +1155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
@@ -1160,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="17" t="s">
         <v>39</v>
@@ -1172,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32.25">
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="16" t="s">
         <v>42</v>
@@ -1184,7 +1191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="16" t="s">
         <v>45</v>
@@ -1196,7 +1203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>48</v>
@@ -1208,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="16" t="s">
         <v>51</v>
@@ -1220,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="16" t="s">
         <v>54</v>
@@ -1232,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="16" t="s">
         <v>56</v>
@@ -1244,7 +1251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="16" t="s">
         <v>59</v>
@@ -1256,7 +1263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="16" t="s">
         <v>61</v>
@@ -1268,7 +1275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
@@ -1278,7 +1285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="12" t="s">
@@ -1288,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="12" t="s">
@@ -1298,7 +1305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="12" t="s">
@@ -1306,7 +1313,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="16.5">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="14" t="s">
@@ -1314,7 +1321,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>72</v>
       </c>
@@ -1335,26 +1342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF7E30AC51BE24AB98F695D1F646B0D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="944c3efe05a27205f6f8a21900784054">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac015f5f-37cf-480b-8f61-9f6dcabe93df" xmlns:ns3="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bdc8c47fb571a171e530ebc6f1b62f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
@@ -1589,14 +1576,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac015f5f-37cf-480b-8f61-9f6dcabe93df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5b6e755b-8d33-4086-9b6b-a9a4d44f3067" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4675BAB-594C-4970-BCA8-1F20D643B05C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7204DDE-7605-4C5E-8C8E-AB744C71D5BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3DE849B-76A0-4F20-8F64-2CB8729F6A8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3DE849B-76A0-4F20-8F64-2CB8729F6A8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac015f5f-37cf-480b-8f61-9f6dcabe93df"/>
+    <ds:schemaRef ds:uri="5b6e755b-8d33-4086-9b6b-a9a4d44f3067"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7204DDE-7605-4C5E-8C8E-AB744C71D5BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4675BAB-594C-4970-BCA8-1F20D643B05C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>